--- a/Documents/Product_Backlog/User Stories and Acceptance Criteria.xlsx
+++ b/Documents/Product_Backlog/User Stories and Acceptance Criteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAIDA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2362B607-5047-4DBD-87D6-4E1E18002659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340EA9D5-980D-43C7-AA5A-A8B75611778B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71A2FEE8-37A7-4296-B1C7-5F5E82867754}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17C1B362-469A-6043-BB38-20B948F7E059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
   <si>
     <t>No.</t>
   </si>
@@ -42,19 +42,10 @@
     <t>Story Points</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>US_01</t>
   </si>
   <si>
-    <t>As a patient, I want to upload an image of my skin condition so that I can receive a diagnosis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The patient can access an interface to upload an image.
-The patient can select and submit an image from device.
-The system accepts image files in specified formats, e.g., JPEG, JPG, PNG.
-</t>
+    <t>As a patient, I want to access a home page and start a new case so that I can begin my skin condition assessment.</t>
   </si>
   <si>
     <t>Image Upload</t>
@@ -63,234 +54,441 @@
     <t>US_02</t>
   </si>
   <si>
-    <t>As a patient, I want to upload several images to one case so that I can provide more information about my skin condition.</t>
-  </si>
-  <si>
-    <t>The patient can upload multiple images (up to 3) to one case.
-The system accepts multiple images in specified formats (JPEG, JPG, PNG).
-All uploaded images are associated with the same patient case.
-The patient receives a confirmation message after uploading each image.
-The system displays a preview of all uploaded images for review before diagnosis.</t>
+    <t>As a patient, I want to access an interface to upload images so that I can provide information about my skin condition.</t>
+  </si>
+  <si>
+    <t>Access Upload Interface: Given the patient starts a new case, When they proceed to the image upload step, Then an interface appears where they can upload images.
+Image Selection Options: Given the patient is on the image upload interface, When they choose to upload an image, Then they can either select an image from their device or drag and drop it onto the upload section.</t>
+  </si>
+  <si>
+    <t>US_03</t>
+  </si>
+  <si>
+    <t>As a patient, I want to select an image from my device and upload it so that it can be used for diagnosis.</t>
+  </si>
+  <si>
+    <t>The patient can select a single image file from their device.
+The system accepts specified formats (e.g., JPEG, JPG, PNG).</t>
+  </si>
+  <si>
+    <t>US_04</t>
+  </si>
+  <si>
+    <t>As a patient, I want to receive a confirmation message and see a preview of my uploaded image so that I know it was uploaded successfully.</t>
+  </si>
+  <si>
+    <t>Confirmation Message: Given the patient uploads an image successfully, When the system completes the upload process, Then a confirmation message is displayed on the screen.
+Image Preview: Given the image is uploaded successfully, When the system processes the image, Then a thumbnail preview of the uploaded image is displayed on the interface.</t>
+  </si>
+  <si>
+    <t>US_05</t>
+  </si>
+  <si>
+    <t>As a patient, I want the app to analyze my image and recognize basic types of skin conditions so that I can receive a preliminary diagnosis.</t>
+  </si>
+  <si>
+    <t>Model Triggers Analysis: Given the patient has successfully uploaded an image, When they click the "Analyze" button, Then the app uses the trained AI model to classify the skin condition.
+Initial Classification Accuracy: Given the model is trained to recognize 5 common skin conditions, When an image is analyzed, Then the prediction results are displayed based on the model's classification accuracy.</t>
   </si>
   <si>
     <t>AI Diagnosis</t>
   </si>
   <si>
-    <t>US_03</t>
-  </si>
-  <si>
-    <t>As a patient, I want to receive a diagnosis so that I know the skin issue I am facing</t>
-  </si>
-  <si>
-    <t>After submitting the image, the patient receives a diagnosis.
-The diagnosis is presented as the name of the skin condition.
-The system provides the diagnosis within a reasonable time, e.g., less than 1 min.</t>
-  </si>
-  <si>
-    <t>US_04</t>
-  </si>
-  <si>
-    <t>As a patient, I want to receive the most accurate possible diagnosis so that I can trust the diagnosis provided.</t>
-  </si>
-  <si>
-    <t>The system continuously improves the model and algorithms for better diagnostic results.
-The diagnosis accuracy is optimized based on model refinements and external validation.
-The confidence level of the diagnosis should be high (e.g., 95%).</t>
-  </si>
-  <si>
-    <t>US_05</t>
-  </si>
-  <si>
-    <t>As a patient, I want to receive a brief description of the diagnosed condition so that I can understand the skin issue I am facing.</t>
-  </si>
-  <si>
-    <t>After receiving the diagnosis, the patient is provided with a brief description of the diagnosed condition.
-The description is written in clear, understandable language.
-The description includes common symptoms and causes.</t>
-  </si>
-  <si>
     <t>US_06</t>
   </si>
   <si>
+    <t>As a patient, I want to receive the diagnosis as the name of the condition so that I can understand the skin issue.</t>
+  </si>
+  <si>
+    <t>Display Diagnosis Name: Given the model completes the analysis, When a diagnosis is generated, Then the name of the skin condition is displayed clearly on the patient’s screen.
+Readable Format: Given the diagnosis is presented to the patient, When it is displayed, Then the name of the condition is shown in an easy-to-read and user-friendly format.</t>
+  </si>
+  <si>
+    <t>US_07</t>
+  </si>
+  <si>
+    <t>As a patient, I want the uploaded image to be securely stored so that I can access my report anytime.</t>
+  </si>
+  <si>
+    <t>Secure Image Storage: Given the patient uploads an image, When the upload process is successful, Then the image is securely stored in Firebase Storage with a unique case ID.
+Image Accessibility: Given the patient has logged into their account, When they access their case details, Then all stored images are displayed and linked to the relevant case.</t>
+  </si>
+  <si>
+    <t>Image Handling</t>
+  </si>
+  <si>
+    <t>US_08</t>
+  </si>
+  <si>
+    <t>As a guest user, I want my uploaded image to be deleted after processing so that it doesn’t remain stored unnecessarily.</t>
+  </si>
+  <si>
+    <t>Automatic Deletion: Given the guest uploads an image, When 5 minutes have passed after upload, Then the image is automatically deleted from Firebase Storage.</t>
+  </si>
+  <si>
+    <t>US_09</t>
+  </si>
+  <si>
+    <t>As a guest user, I want the system to alert me if my temporary image is unavailable after the session so that I can re-upload it.</t>
+  </si>
+  <si>
+    <t>Image Unavailable Alert: Given the guest's temporary image is deleted due to timeout, When they attempt to proceed, Then the system displays an alert notifying them about the unavailability.
+Re-Upload Option: Given the guest's image is deleted, When they choose to upload a new image, Then the system provides an option to re-upload.</t>
+  </si>
+  <si>
+    <t>US_10</t>
+  </si>
+  <si>
+    <t>As a patient, I want clear error messages if something goes wrong during upload or prediction so that I can take corrective actions.</t>
+  </si>
+  <si>
+    <t>Error Messages for Uploads: Given the patient uploads an invalid file or encounters a failed upload, When the system detects an issue, Then an error message is displayed explaining the problem and steps to resolve it.
+Retry Options: Given an error occurs during upload or prediction, When the patient chooses to retry, Then the system provides a retry button to reattempt the process.</t>
+  </si>
+  <si>
+    <t>US_11</t>
+  </si>
+  <si>
+    <t>As a patient, I want the app to recognize a wide range of skin conditions so that I can receive a diagnosis for diverse issues.</t>
+  </si>
+  <si>
+    <t>Wide Range of Conditions: Given the patient submits an image, When the diagnosis is completed, Then the app provides predictions for 20+ skin conditions with clear names.</t>
+  </si>
+  <si>
+    <t>US_12</t>
+  </si>
+  <si>
+    <t>As a patient, I want the diagnosis accuracy to be improved so that I can trust the AI’s results.</t>
+  </si>
+  <si>
+    <t>Model Accuracy Improvement: Given the AI model is retrained with additional data, When new predictions are made, Then the accuracy threshold meets or exceeds 80% for common conditions.</t>
+  </si>
+  <si>
+    <t>US_13</t>
+  </si>
+  <si>
+    <t>As a patient, I want to receive the diagnosis result as soon as possible so that I can act quickly if needed.</t>
+  </si>
+  <si>
+    <t>Fast Processing Time: Given the patient uploads an image for diagnosis, When the system processes the request, Then the results are displayed within 1 minute.
+Delay Notification: Given processing exceeds the expected time, When the patient waits, Then the system informs them of the delay and provides an estimated wait time.</t>
+  </si>
+  <si>
+    <t>US_14</t>
+  </si>
+  <si>
+    <t>As a patient, I want to receive a brief description of the diagnosed condition so that I can understand about the skin issue I am facing.</t>
+  </si>
+  <si>
+    <t>Brief Description: Given the diagnosis is completed, When the result is displayed, Then a brief description is provided in clear, understandable language, including common symptoms and causes.</t>
+  </si>
+  <si>
+    <t>US_15</t>
+  </si>
+  <si>
     <t>As a patient, I want to receive treatment recommendations so that I can take action towards treating my skin condition.</t>
   </si>
   <si>
-    <t>After receiving the diagnosis, the patient is provided with a brief description of the diagnosed condition.
-The description is written in clear, understandable language.
-The description includes common symptoms and causes of the condition.</t>
-  </si>
-  <si>
-    <t>US_07</t>
+    <t>Treatment Recommendations: Given the patient receives a diagnosis, When the system displays the result, Then evidence-based treatment recommendations are provided, including over-the-counter remedies or advice to seek professional care.</t>
+  </si>
+  <si>
+    <t>US_16</t>
   </si>
   <si>
     <t>As a patient, I want to view a comprehensive report of a case so that I have a complete record of my skin condition assessment.</t>
   </si>
   <si>
-    <t>Patients can easily create and access the report form their diagnosis page.
-The layout is user-friendly with clear sections and headings, and all images are displayed clearly within the report.
-Report contents: 
-- Patient information, 
-- Case details(case open date, unique case identifier, images uploaded by patient, AI diagnosis of skin condition, brief description of the diagnosed condition, treatment suggestion), 
-- Report Metadata(report generate date, unique report identifier).
-- Derm's input(derm's diagnosis, derm's comments and recommendations, derm's review date, derm's name).
-- Disclaimers clarfying that any limitations of the AI diagnosis.
-If the dermatologist's review is pending, the report indicates which sections will be updated after the review.
-If the report generation fails, the system provides an error message and guide user to next steps.</t>
+    <t>View Comprehensive Report: Given the patient accesses their case, When they open the report, Then it includes metadata, patient details, uploaded images, diagnosis, descriptions, and treatment recommendations.</t>
   </si>
   <si>
     <t>Report</t>
   </si>
   <si>
-    <t>US_08</t>
-  </si>
-  <si>
-    <t>As a patient, I want to download a comprehensive report of a case, so that I can keep the document of my skin condition assessment.</t>
-  </si>
-  <si>
-    <t>An option to download the report is available.
-The report provides a downloadable format, e.g., PDF.
-The downloaded document displays the same layout as the web application.</t>
-  </si>
-  <si>
-    <t>US_09</t>
+    <t>US_17</t>
+  </si>
+  <si>
+    <t>As a patient, I want to download a detailed report as a PDF so that I can share it with a dermatologist or keep it for personal records..</t>
+  </si>
+  <si>
+    <t>Downloadable Report: Given the patient opens their report, When they click the "Download PDF" button, Then a PDF version of the report is generated and downloaded, matching the layout of the web application.</t>
+  </si>
+  <si>
+    <t>US_18</t>
+  </si>
+  <si>
+    <t>As a patient, I want the ability to print my report directly from the app so that I can have a hard copy when needed.</t>
+  </si>
+  <si>
+    <t>Print Report: Given the patient opens their report, When they click the "Print" button, Then a printable version of the report is generated with a clear and professional layout.</t>
+  </si>
+  <si>
+    <t>US_19</t>
+  </si>
+  <si>
+    <t>As a patient, I want my reports to be secure and accessible only by me so that my medical data remains private.</t>
+  </si>
+  <si>
+    <t>Secure Access: Given the patient logs into their account, When they access their reports, Then the system verifies their identity and ensures only they can view the data.
+Data Security: Given the patient’s reports are stored, When the system handles data, Then secure storage methods like Firebase and Firestore encryption are used to ensure privacy.</t>
+  </si>
+  <si>
+    <t>Report Security and Privacy</t>
+  </si>
+  <si>
+    <t>US_20</t>
   </si>
   <si>
     <t>As a patient, I want to view my past cases and track their statuses, so that I can monitor my health progress and stay informed about the evaluations.</t>
   </si>
   <si>
-    <t>The patient can access "Case History" section after logging in their account.
-All past cases are listed in a chronological order, top is the most recent cases, each case displays a summary information: case id, case open date, status.
-The system updates case statuses in real-time, without requiring the patient to refresh manually.
-Clicking on a case entry navigate the patient to that case's report.</t>
+    <t>Case History Access: Given the patient logs into their account, When they navigate to the "Case History" section, Then they can view a chronological list of all past cases.
+Real-Time Status Updates: Given the patient views their case list, When the status of a case changes, Then the system updates the status in real time without requiring a refresh.
+Navigation to Report: Given the patient clicks on a case entry, When the system processes the request, Then the patient is navigated to that case’s report.</t>
   </si>
   <si>
     <t>User Account Management</t>
   </si>
   <si>
-    <t>US_10</t>
+    <t>US_21</t>
   </si>
   <si>
     <t>As a dermatologists, I want to access and view patient reports so that I can assess their conditions and provide professional feedback.</t>
   </si>
   <si>
-    <t>The dermatologist can log in to the system using valid credentials.
-Upon logging in, they are directed to a dashboard displaying all assigned patient reports.
-Reports are presented in a list view.
-The dermatologist can sort reports by date, status, or patient ID.</t>
-  </si>
-  <si>
-    <t>US_11</t>
+    <t>Access Reports Dashboard: Given the dermatologist logs into their account, When they navigate to the dashboard, Then a list of all assigned patient reports is displayed.
+Report Sorting Options: Given the dermatologist is on the reports dashboard, When they apply sorting filters (e.g., by date, status, or patient ID), Then the system dynamically updates the displayed list.</t>
+  </si>
+  <si>
+    <t>US_22</t>
   </si>
   <si>
     <t>As a dermatologist, I want to add my diagnosis to patient reports so that I can contribute my professional assessment to the patient's case.</t>
   </si>
   <si>
-    <t>The dermatologist can open a patient report and select their diagnosis from the skin condition's list.
-The dermatologist can submit the diagnosis, the status of the report changed to "review" after the submission.
-The dermatologist diagnosis is associated with patient's report, and visible to the patient in their report.</t>
+    <t>Select Diagnosis: Given the dermatologist opens a patient report, When they select a diagnosis from the predefined skin condition list, Then the selected diagnosis is added to the report.
+Submit Diagnosis: Given the dermatologist enters their diagnosis, When they click the "Submit" button, Then the report status changes to "Reviewed," and the diagnosis is visible to the patient.</t>
   </si>
   <si>
     <t>Derm Review</t>
   </si>
   <si>
-    <t>US_12</t>
+    <t>US_23</t>
   </si>
   <si>
     <t>As a dermatologist, I want to add comments to patient reports so that I can provide addditional guidance if necessary.</t>
   </si>
   <si>
-    <t>The dermatologist can open a patient report and therer is a section to add comments. 
-The field supports text input with a reasonable character limit (e.g., 500 characters).
-The dermatologist can submit the comment.
-The dermatologist comment is associated with patient's report, and visible to the patient in their report.</t>
-  </si>
-  <si>
-    <t>US_13</t>
+    <t>Add Comments: Given the dermatologist opens a patient report, When they enter comments in the designated text field, Then the comments are saved and associated with the report.
+Visibility of Comments: Given the dermatologist submits comments, When the patient views the report, Then the comments are displayed in the relevant section.</t>
+  </si>
+  <si>
+    <t>US_24</t>
   </si>
   <si>
     <t>As a patient, I want to be notified as soon as my report is reviewed by a dermatologist so that I can stay informed about my case status.</t>
   </si>
   <si>
-    <t>The patient receives a notification immediately when the dermatologist submits their diagnosis and comments.
-Notifications can be delivered via: Email, In-app notification.
-The notification includes:
-A brief message indicating that the report has been reviewed.
-Instructions on how to view the updated report.</t>
-  </si>
-  <si>
-    <t>US_14</t>
-  </si>
-  <si>
-    <t>As a patient, I want to chat with a dermatologist in real-time so that I can receive consultation and clarify my concerns.</t>
-  </si>
-  <si>
-    <t>The patient can access a chat feature from report page.
-Patients can request a chat session with a dermatologist.
-The chat interface supports: Sending and receiving text messages, typing indicators, time stamps for each message, sending attachments (e.g., additional images, documents) if permitted.
-Only the patient and the assigned dermatologist can access the chat history.</t>
+    <t>Notification Delivery: Given the dermatologist submits their diagnosis and comments, When the report status changes to "Reviewed," Then the patient receives a notification.
+Notification Content: Given a notification is sent, When the patient opens it, Then it includes a brief message indicating the report has been reviewed and instructions on how to view the updated report.</t>
+  </si>
+  <si>
+    <t>US_25</t>
+  </si>
+  <si>
+    <t>As a patient, I want to access a chat interface from my report page so that I can communicate directly with a dermatologist.</t>
+  </si>
+  <si>
+    <t>Open Chat Interface: Given the patient is on their report page, When they click the "Chat" button, Then a chat window opens displaying active chat requests.</t>
   </si>
   <si>
     <t>Chat</t>
   </si>
   <si>
-    <t>US_15</t>
+    <t>US_26</t>
+  </si>
+  <si>
+    <t>As a patient, I want to message my dermatologist in real time so that I can get quick answers to my questions.</t>
+  </si>
+  <si>
+    <t>Real-Time Messaging: Given a patient initiates a chat with a dermatologist, When they send a message, Then the dermatologist receives the message in real time.
+Chat Features: Given a chat session is active, When messages are exchanged, Then each message includes a time stamp and typing indicators.</t>
+  </si>
+  <si>
+    <t>US_27</t>
+  </si>
+  <si>
+    <t>As a patient, I want to send images to dermatologist so that I can provide additional visual information about my skin condition.</t>
+  </si>
+  <si>
+    <t>Send Images: Given the patient is in a chat session, When they select and send an image, Then the image is uploaded and displayed in the chat interface.
+Supported Formats: Given the patient sends an image, When the system processes the file, Then only supported formats (JPEG, JPG, PNG) are accepted.</t>
+  </si>
+  <si>
+    <t>US_28</t>
+  </si>
+  <si>
+    <t>As a patient, I want to review the chat history with my dermatologist so that I can refer back to previous discussions and recommendations.</t>
+  </si>
+  <si>
+    <t>Access Chat History: Given the patient is in an active chat session, When they open the chat interface, Then all past messages are displayed in chronological order with time stamps.</t>
+  </si>
+  <si>
+    <t>US_29</t>
   </si>
   <si>
     <t>As a dermatologist, I want to chat with patients in real-time so that I can provide personalized consultation and answer their questions.</t>
   </si>
   <si>
-    <t>The dermatologist has access to a chat interface showing active chat requests from patients.
-Dermatologists can accept or decline chat requests, upon acceptance, the real-time chat session begins. 
-The chat supports: Sending and receiving text messages, typing indicators, time stamps for each message, sending attachments (e.g., additional images, documents) if permitted.
-The dermatologist can end the chat session when appropriate.</t>
-  </si>
-  <si>
-    <t>US_16</t>
-  </si>
-  <si>
-    <t>As a patient, I want to register an account so that I can store my basic information and access personalized services.</t>
-  </si>
-  <si>
-    <t>The patient can access a registration page requiring: Full name, Email address, Password creation, Date of birth.
-Post-registration, the patient can log in and update their profile information.</t>
-  </si>
-  <si>
-    <t>US_17</t>
+    <t>Access Active Chat Requests: Given the dermatologist logs into their account, When they navigate to the chat dashboard, Then all active chat requests from patients are displayed.
+Real-Time Chat: Given the dermatologist accepts a chat request, When messages are exchanged, Then all messages include time stamps and attachments are supported.
+End Chat Session: Given the dermatologist finishes the consultation, When they click "End Chat," Then the session is closed, and the patient receives a notification.</t>
+  </si>
+  <si>
+    <t>US_30</t>
+  </si>
+  <si>
+    <t>As a patient, I want to sign up an account so that I can store my basic information and access personalized services.</t>
+  </si>
+  <si>
+    <t>Patient Registration: Given the patient accesses the registration page, When they enter their full name, email, password, and date of birth, Then the system creates an account upon form submission.</t>
+  </si>
+  <si>
+    <t>US_31</t>
   </si>
   <si>
     <t>As a dermatologist, I want to sign up so that I can access patient reports and provide professional feedback.</t>
   </si>
   <si>
-    <t>The dermatologist can access a sign-up page requiring: Full name, Email address, Password creation, Medical license number.</t>
-  </si>
-  <si>
-    <t>US_18</t>
+    <t>Dermatologist Registration: Given the dermatologist accesses the registration page, When they enter their full name, email, password, and medical license number, Then the system verifies their details and creates an account.</t>
+  </si>
+  <si>
+    <t>US_32</t>
   </si>
   <si>
     <t>As a patient, I want to log in to my account so that I can manage my cases and view diagnoses.</t>
   </si>
   <si>
-    <t>The patient accesses a login page requiring: Email address, Password.
-Upon successful login, the dermatologist is directed to their dashboard.</t>
-  </si>
-  <si>
-    <t>US_19</t>
+    <t>Patient Login: Given the patient accesses the login page, When they enter their email and password, Then the system authenticates their credentials and directs them to their dashboard.</t>
+  </si>
+  <si>
+    <t>US_33</t>
   </si>
   <si>
     <t>As a dermatologist, I want to log in to my account so that I can manage patient reports and update case statuses.</t>
   </si>
   <si>
-    <t>The dermatologist accesses a login page requiring: Email address, Password.
-Upon successful login, the dermatologist is directed to their dashboard.</t>
+    <t>Dermatologist Login: Given the dermatologist accesses the login page, When they enter their email and password, Then the system authenticates their credentials and directs them to their dashboard.</t>
+  </si>
+  <si>
+    <t>TU_01</t>
+  </si>
+  <si>
+    <t>As a developer, I want to define user stories and acceptance criteria so that I have a clear understanding of the project requirements and can prioritize tasks.</t>
+  </si>
+  <si>
+    <t>All user stories are written in the standard format: As a [user role], I want [goal] so that [benefit].
+Acceptance criteria are defined for each user story.
+Story points is defined for each user story.
+User Stories, Acceptance criteria, and story points are setted in Jira.</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>TU_02</t>
+  </si>
+  <si>
+    <t>As a developer, I want to finalize project diagrams so that I have a comprehensive visual representation of the system and its components.</t>
+  </si>
+  <si>
+    <t>Architecture Diagrams, Context Diagram, ER Diagrams, Sequence Diagram, State Diagrams, Class Diagrams.</t>
+  </si>
+  <si>
+    <t>TU_03</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create test cases for Sprint 1 user stories so that I can verify the initial functionality is implemented correctly.</t>
+  </si>
+  <si>
+    <t>Test cases are written for each user story included in Sprint 1.
+Each test case includes test objectives, preconditions, test steps, expected results, and postconditions.</t>
+  </si>
+  <si>
+    <t>TU_04</t>
+  </si>
+  <si>
+    <t>As a developer, I want to write a technical paper on the project so that I can document its technical aspects and design decisions for future reference.</t>
+  </si>
+  <si>
+    <t>The technical paper is reviewed by team members.</t>
+  </si>
+  <si>
+    <t>TU_05</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create test cases for Sprint 2 user stories so that I can verify the new functionality introduced in the Sprint 2.</t>
+  </si>
+  <si>
+    <t>Test cases are written for each user story included in Sprint 2.
+Each test case includes test objectives, preconditions, test steps, expected results, and postconditions.</t>
+  </si>
+  <si>
+    <t>TU_06</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create an installation manual for the project so that users can easily set up the application in their environment.</t>
+  </si>
+  <si>
+    <t>The Installation Manual should can assist other developers to deploy this application to the production/development environment, and indicate components and tools required to setup up the environments.
+The installation manual is tested by a team member or tester following the instructions to ensure accuracy.</t>
+  </si>
+  <si>
+    <t>TU_07</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create comprehensive API documentation so that other developers can integrate with and use the API effectively.</t>
+  </si>
+  <si>
+    <t>Documentation covers all endpoints, including request methods (GET, POST, etc.), parameters, request/response formats, and example requests.
+API documentation is reviewed by developers and testers to ensure clarity and completeness.</t>
+  </si>
+  <si>
+    <t>TU_08</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create test cases for Sprint 3 user stories so that I can verify the new functionality introduced in the Sprint 3.</t>
+  </si>
+  <si>
+    <t>Test cases are written for each user story included in Sprint 3.
+Each test case includes test objectives, preconditions, test steps, expected results, and postconditions.</t>
+  </si>
+  <si>
+    <t>Access Home Page: Given the patient opens the application, When they navigate to the home page, Then the home page is displayed with options to start a new case and clear instructions on how to use the app.
+Start New Case Button: Given the patient is on the home page, When they click the "Start New Case" button, Then they are directed to the new case interface.</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2 </t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Technical Stories</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,17 +498,33 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,11 +534,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,88 +565,120 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,390 +993,764 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D067E7-AD01-452D-B396-0283AE11EEE2}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE31495-FABA-D14D-98C1-78871695D303}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
-    <col min="3" max="3" width="61.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="151.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="106.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="139.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="246" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="103.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="99.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="106.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="91.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="103.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="181.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="145.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="142.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="133.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="118.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="106.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="118.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="130.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="103.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>